--- a/Fase II - Ejecucion/8000 Pruebas de cumplimiento tributario/8300 Examen de Impuestos/Mapeo de cuentas contables.xlsx
+++ b/Fase II - Ejecucion/8000 Pruebas de cumplimiento tributario/8300 Examen de Impuestos/Mapeo de cuentas contables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.160.17.68\compartida\e\Desktop\CHRISTIAN\COSTEO DE PRODUCCIONES\101 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase II - Ejecucion\8000 Pruebas de cumplimiento tributario\8300 Examen de Impuestos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E746B0F-E72E-4B10-814A-1C74E8A62AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DEE0E2-B379-43DF-A301-502F181A2E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{1B12778B-265C-402D-9356-E74AE02A3565}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1B12778B-265C-402D-9356-E74AE02A3565}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance General " sheetId="2" r:id="rId1"/>
@@ -21,18 +21,28 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="376">
   <si>
     <t>Fecha Imp 2021.03.24</t>
   </si>
@@ -1271,7 +1281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,6 +1291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,7 +1334,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1367,18 +1383,6 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1396,6 +1400,22 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1403,7 +1423,42 @@
     <cellStyle name="Moneda 2" xfId="3" xr:uid="{CD8DC50B-1999-4D20-B921-412903629A77}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="256">
+  <dxfs count="261">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
@@ -5635,8 +5690,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90224469-A982-480B-976B-DCE57797A82B}" name="TablaDinámica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B100" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90224469-A982-480B-976B-DCE57797A82B}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B123" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="107">
@@ -5734,7 +5789,7 @@
         <item sd="0" x="86"/>
         <item sd="0" x="65"/>
         <item sd="0" x="82"/>
-        <item sd="0" x="63"/>
+        <item x="63"/>
         <item sd="0" x="77"/>
         <item sd="0" x="92"/>
         <item sd="0" x="91"/>
@@ -6035,7 +6090,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="96">
+  <rowItems count="119">
     <i>
       <x/>
     </i>
@@ -6303,6 +6358,75 @@
     <i>
       <x v="94"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i r="1">
+      <x v="102"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="167"/>
+    </i>
+    <i r="1">
+      <x v="180"/>
+    </i>
+    <i r="1">
+      <x v="184"/>
+    </i>
+    <i r="1">
+      <x v="200"/>
+    </i>
+    <i r="1">
+      <x v="218"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i r="1">
+      <x v="220"/>
+    </i>
+    <i r="1">
+      <x v="221"/>
+    </i>
+    <i r="1">
+      <x v="222"/>
+    </i>
+    <i r="1">
+      <x v="244"/>
+    </i>
+    <i r="1">
+      <x v="246"/>
+    </i>
     <i>
       <x v="95"/>
     </i>
@@ -6331,11 +6455,11 @@
   <dataFields count="1">
     <dataField name="Suma de Saldo" fld="4" baseField="0" baseItem="0" numFmtId="43"/>
   </dataFields>
-  <formats count="128">
-    <format dxfId="255">
+  <formats count="133">
+    <format dxfId="260">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="254">
+    <format dxfId="259">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -6344,7 +6468,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="253">
+    <format dxfId="258">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6356,7 +6480,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="252">
+    <format dxfId="257">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6364,54 +6488,99 @@
           </reference>
           <reference field="1" count="1">
             <x v="181"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="256">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="182"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="255">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="182"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="254">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="177"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="253">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="177"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="252">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="78"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="251">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
+        <references count="1">
+          <reference field="0" count="1">
             <x v="95"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="182"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="250">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="95"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="182"/>
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="249">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="95"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="177"/>
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="248">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="95"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="177"/>
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -6420,7 +6589,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="78"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -6429,7 +6598,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="95"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -6438,7 +6607,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="5"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -6447,7 +6616,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="6"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -6456,7 +6625,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="7"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
@@ -6465,7 +6634,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="8"/>
+            <x v="14"/>
           </reference>
         </references>
       </pivotArea>
@@ -6474,7 +6643,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="9"/>
+            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -6483,7 +6652,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="10"/>
+            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
@@ -6492,7 +6661,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="11"/>
+            <x v="18"/>
           </reference>
         </references>
       </pivotArea>
@@ -6501,7 +6670,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="12"/>
+            <x v="19"/>
           </reference>
         </references>
       </pivotArea>
@@ -6510,7 +6679,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="14"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
@@ -6519,7 +6688,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="16"/>
+            <x v="21"/>
           </reference>
         </references>
       </pivotArea>
@@ -6528,7 +6697,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="17"/>
+            <x v="22"/>
           </reference>
         </references>
       </pivotArea>
@@ -6537,7 +6706,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="18"/>
+            <x v="23"/>
           </reference>
         </references>
       </pivotArea>
@@ -6546,7 +6715,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="19"/>
+            <x v="24"/>
           </reference>
         </references>
       </pivotArea>
@@ -6555,7 +6724,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="20"/>
+            <x v="25"/>
           </reference>
         </references>
       </pivotArea>
@@ -6564,7 +6733,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="21"/>
+            <x v="26"/>
           </reference>
         </references>
       </pivotArea>
@@ -6573,7 +6742,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="22"/>
+            <x v="27"/>
           </reference>
         </references>
       </pivotArea>
@@ -6582,7 +6751,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="23"/>
+            <x v="28"/>
           </reference>
         </references>
       </pivotArea>
@@ -6591,7 +6760,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="24"/>
+            <x v="29"/>
           </reference>
         </references>
       </pivotArea>
@@ -6600,7 +6769,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="25"/>
+            <x v="30"/>
           </reference>
         </references>
       </pivotArea>
@@ -6609,7 +6778,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="26"/>
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -6618,7 +6787,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="27"/>
+            <x v="32"/>
           </reference>
         </references>
       </pivotArea>
@@ -6627,7 +6796,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="28"/>
+            <x v="33"/>
           </reference>
         </references>
       </pivotArea>
@@ -6636,7 +6805,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="29"/>
+            <x v="34"/>
           </reference>
         </references>
       </pivotArea>
@@ -6645,7 +6814,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="30"/>
+            <x v="35"/>
           </reference>
         </references>
       </pivotArea>
@@ -6654,7 +6823,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="31"/>
+            <x v="36"/>
           </reference>
         </references>
       </pivotArea>
@@ -6663,7 +6832,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="32"/>
+            <x v="37"/>
           </reference>
         </references>
       </pivotArea>
@@ -6672,7 +6841,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="33"/>
+            <x v="38"/>
           </reference>
         </references>
       </pivotArea>
@@ -6681,7 +6850,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="34"/>
+            <x v="39"/>
           </reference>
         </references>
       </pivotArea>
@@ -6690,7 +6859,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="35"/>
+            <x v="40"/>
           </reference>
         </references>
       </pivotArea>
@@ -6699,7 +6868,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="36"/>
+            <x v="42"/>
           </reference>
         </references>
       </pivotArea>
@@ -6708,7 +6877,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="37"/>
+            <x v="43"/>
           </reference>
         </references>
       </pivotArea>
@@ -6717,7 +6886,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="38"/>
+            <x v="44"/>
           </reference>
         </references>
       </pivotArea>
@@ -6726,7 +6895,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="39"/>
+            <x v="45"/>
           </reference>
         </references>
       </pivotArea>
@@ -6735,7 +6904,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="40"/>
+            <x v="46"/>
           </reference>
         </references>
       </pivotArea>
@@ -6744,7 +6913,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="42"/>
+            <x v="47"/>
           </reference>
         </references>
       </pivotArea>
@@ -6753,7 +6922,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="43"/>
+            <x v="48"/>
           </reference>
         </references>
       </pivotArea>
@@ -6762,7 +6931,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="44"/>
+            <x v="49"/>
           </reference>
         </references>
       </pivotArea>
@@ -6771,7 +6940,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="45"/>
+            <x v="50"/>
           </reference>
         </references>
       </pivotArea>
@@ -6780,16 +6949,19 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="46"/>
+            <x v="51"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="206">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="47"/>
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="51"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="97"/>
           </reference>
         </references>
       </pivotArea>
@@ -6798,16 +6970,19 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="48"/>
+            <x v="52"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="204">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="49"/>
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="52"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="208"/>
           </reference>
         </references>
       </pivotArea>
@@ -6816,28 +6991,28 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="50"/>
+            <x v="53"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="202">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="51"/>
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="53"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="248"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="201">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="51"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="97"/>
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="54"/>
           </reference>
         </references>
       </pivotArea>
@@ -6846,7 +7021,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="52"/>
+            <x v="55"/>
           </reference>
         </references>
       </pivotArea>
@@ -6855,10 +7030,11 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
-            <x v="52"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="208"/>
+            <x v="55"/>
+          </reference>
+          <reference field="1" count="2">
+            <x v="50"/>
+            <x v="100"/>
           </reference>
         </references>
       </pivotArea>
@@ -6867,19 +7043,16 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="53"/>
+            <x v="56"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="197">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="53"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="248"/>
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="57"/>
           </reference>
         </references>
       </pivotArea>
@@ -6888,7 +7061,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="54"/>
+            <x v="58"/>
           </reference>
         </references>
       </pivotArea>
@@ -6897,20 +7070,16 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="55"/>
+            <x v="59"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="194">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="55"/>
-          </reference>
-          <reference field="1" count="2">
-            <x v="50"/>
-            <x v="100"/>
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="60"/>
           </reference>
         </references>
       </pivotArea>
@@ -6919,7 +7088,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="56"/>
+            <x v="61"/>
           </reference>
         </references>
       </pivotArea>
@@ -6928,7 +7097,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="57"/>
+            <x v="62"/>
           </reference>
         </references>
       </pivotArea>
@@ -6937,7 +7106,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="58"/>
+            <x v="63"/>
           </reference>
         </references>
       </pivotArea>
@@ -6946,7 +7115,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="59"/>
+            <x v="64"/>
           </reference>
         </references>
       </pivotArea>
@@ -6955,7 +7124,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="60"/>
+            <x v="65"/>
           </reference>
         </references>
       </pivotArea>
@@ -6964,7 +7133,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="61"/>
+            <x v="66"/>
           </reference>
         </references>
       </pivotArea>
@@ -6973,7 +7142,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="62"/>
+            <x v="67"/>
           </reference>
         </references>
       </pivotArea>
@@ -6982,7 +7151,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="63"/>
+            <x v="68"/>
           </reference>
         </references>
       </pivotArea>
@@ -6991,7 +7160,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="64"/>
+            <x v="69"/>
           </reference>
         </references>
       </pivotArea>
@@ -7000,7 +7169,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="65"/>
+            <x v="71"/>
           </reference>
         </references>
       </pivotArea>
@@ -7009,7 +7178,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="66"/>
+            <x v="72"/>
           </reference>
         </references>
       </pivotArea>
@@ -7018,7 +7187,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="67"/>
+            <x v="73"/>
           </reference>
         </references>
       </pivotArea>
@@ -7027,7 +7196,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="68"/>
+            <x v="75"/>
           </reference>
         </references>
       </pivotArea>
@@ -7036,7 +7205,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="69"/>
+            <x v="76"/>
           </reference>
         </references>
       </pivotArea>
@@ -7045,7 +7214,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="71"/>
+            <x v="77"/>
           </reference>
         </references>
       </pivotArea>
@@ -7054,7 +7223,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="72"/>
+            <x v="78"/>
           </reference>
         </references>
       </pivotArea>
@@ -7063,7 +7232,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="73"/>
+            <x v="79"/>
           </reference>
         </references>
       </pivotArea>
@@ -7072,7 +7241,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="75"/>
+            <x v="80"/>
           </reference>
         </references>
       </pivotArea>
@@ -7081,7 +7250,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="76"/>
+            <x v="81"/>
           </reference>
         </references>
       </pivotArea>
@@ -7090,7 +7259,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="77"/>
+            <x v="82"/>
           </reference>
         </references>
       </pivotArea>
@@ -7099,7 +7268,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="78"/>
+            <x v="83"/>
           </reference>
         </references>
       </pivotArea>
@@ -7108,7 +7277,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="79"/>
+            <x v="85"/>
           </reference>
         </references>
       </pivotArea>
@@ -7117,7 +7286,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="80"/>
+            <x v="86"/>
           </reference>
         </references>
       </pivotArea>
@@ -7126,7 +7295,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="81"/>
+            <x v="87"/>
           </reference>
         </references>
       </pivotArea>
@@ -7135,7 +7304,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="82"/>
+            <x v="88"/>
           </reference>
         </references>
       </pivotArea>
@@ -7144,7 +7313,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="83"/>
+            <x v="89"/>
           </reference>
         </references>
       </pivotArea>
@@ -7153,7 +7322,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="85"/>
+            <x v="90"/>
           </reference>
         </references>
       </pivotArea>
@@ -7162,7 +7331,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="86"/>
+            <x v="91"/>
           </reference>
         </references>
       </pivotArea>
@@ -7171,7 +7340,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="87"/>
+            <x v="92"/>
           </reference>
         </references>
       </pivotArea>
@@ -7180,7 +7349,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="88"/>
+            <x v="93"/>
           </reference>
         </references>
       </pivotArea>
@@ -7189,7 +7358,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="89"/>
+            <x v="94"/>
           </reference>
         </references>
       </pivotArea>
@@ -7198,7 +7367,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="90"/>
+            <x v="95"/>
           </reference>
         </references>
       </pivotArea>
@@ -7207,7 +7376,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="91"/>
+            <x v="96"/>
           </reference>
         </references>
       </pivotArea>
@@ -7216,7 +7385,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="92"/>
+            <x v="97"/>
           </reference>
         </references>
       </pivotArea>
@@ -7225,7 +7394,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="93"/>
+            <x v="98"/>
           </reference>
         </references>
       </pivotArea>
@@ -7234,7 +7403,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="94"/>
+            <x v="101"/>
           </reference>
         </references>
       </pivotArea>
@@ -7243,7 +7412,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="95"/>
+            <x v="103"/>
           </reference>
         </references>
       </pivotArea>
@@ -7252,57 +7421,12 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="96"/>
+            <x v="105"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="155">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="97"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="154">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="98"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="153">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="101"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="152">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="103"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="151">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="105"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="50">
@@ -7360,7 +7484,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="41">
@@ -7409,7 +7533,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="148">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7421,7 +7545,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="147">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7433,7 +7557,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="146">
+    <format dxfId="151">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7445,7 +7569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="145">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7454,6 +7578,51 @@
           <reference field="1" count="2">
             <x v="50"/>
             <x v="100"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="149">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="93"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="148">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="94"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="147">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="95"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="146">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="96"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="145">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="97"/>
           </reference>
         </references>
       </pivotArea>
@@ -7462,7 +7631,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="93"/>
+            <x v="98"/>
           </reference>
         </references>
       </pivotArea>
@@ -7471,7 +7640,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="94"/>
+            <x v="72"/>
           </reference>
         </references>
       </pivotArea>
@@ -7480,7 +7649,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="95"/>
+            <x v="73"/>
           </reference>
         </references>
       </pivotArea>
@@ -7489,7 +7658,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="96"/>
+            <x v="75"/>
           </reference>
         </references>
       </pivotArea>
@@ -7498,7 +7667,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="97"/>
+            <x v="76"/>
           </reference>
         </references>
       </pivotArea>
@@ -7507,7 +7676,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="98"/>
+            <x v="77"/>
           </reference>
         </references>
       </pivotArea>
@@ -7516,7 +7685,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="72"/>
+            <x v="78"/>
           </reference>
         </references>
       </pivotArea>
@@ -7525,7 +7694,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="73"/>
+            <x v="79"/>
           </reference>
         </references>
       </pivotArea>
@@ -7534,7 +7703,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="75"/>
+            <x v="80"/>
           </reference>
         </references>
       </pivotArea>
@@ -7543,7 +7712,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="76"/>
+            <x v="81"/>
           </reference>
         </references>
       </pivotArea>
@@ -7552,7 +7721,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="77"/>
+            <x v="82"/>
           </reference>
         </references>
       </pivotArea>
@@ -7561,52 +7730,68 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="78"/>
+            <x v="83"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="132">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="79"/>
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+          <reference field="1" count="2">
+            <x v="5"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="80"/>
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="40"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="81"/>
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="115"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="129">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="82"/>
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="244"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="128">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="83"/>
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="246"/>
           </reference>
         </references>
       </pivotArea>
@@ -7948,40 +8133,40 @@
       <c r="D2" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -7990,7 +8175,7 @@
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -8007,7 +8192,7 @@
       <c r="B11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="48">
         <v>1710</v>
       </c>
       <c r="D11" s="6"/>
@@ -8026,7 +8211,7 @@
       <c r="B12" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="48">
         <v>20000</v>
       </c>
       <c r="D12" s="6"/>
@@ -8045,7 +8230,7 @@
       <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="48">
         <v>521461.08</v>
       </c>
       <c r="D13" s="6"/>
@@ -8064,7 +8249,7 @@
       <c r="B14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="48">
         <v>183513.37</v>
       </c>
       <c r="D14" s="6"/>
@@ -8083,7 +8268,7 @@
       <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="48">
         <v>5664.86</v>
       </c>
       <c r="D15" s="6"/>
@@ -8102,7 +8287,7 @@
       <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="48">
         <v>110945.23</v>
       </c>
       <c r="D16" s="6"/>
@@ -8121,7 +8306,7 @@
       <c r="B17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="48">
         <v>4596000</v>
       </c>
       <c r="D17" s="6"/>
@@ -8140,7 +8325,7 @@
       <c r="B18" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="48">
         <v>88131.99</v>
       </c>
       <c r="D18" s="6"/>
@@ -8159,7 +8344,7 @@
       <c r="B19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="48">
         <v>3646666.02</v>
       </c>
       <c r="D19" s="6"/>
@@ -8177,7 +8362,7 @@
       <c r="B20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="48">
         <v>168497.77</v>
       </c>
       <c r="D20" s="6"/>
@@ -8460,7 +8645,7 @@
       <c r="B35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="48">
         <v>832430.7</v>
       </c>
       <c r="D35" s="6"/>
@@ -8555,7 +8740,7 @@
       <c r="B40" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="48">
         <v>125750.67</v>
       </c>
       <c r="D40" s="6"/>
@@ -8573,7 +8758,7 @@
       <c r="B41" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="48">
         <v>110941.85</v>
       </c>
       <c r="D41" s="6"/>
@@ -8592,7 +8777,7 @@
       <c r="B42" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="48">
         <v>416356.55</v>
       </c>
       <c r="D42" s="6"/>
@@ -8630,7 +8815,7 @@
       <c r="B44" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="48">
         <v>15513.85</v>
       </c>
       <c r="D44" s="44"/>
@@ -9767,7 +9952,7 @@
       <c r="B108" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="50"/>
+      <c r="C108" s="46"/>
       <c r="D108" s="11">
         <v>971338.87</v>
       </c>
@@ -13112,8 +13297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC119460-B931-4E2F-9A79-7722A6D43174}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13126,10 +13311,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:2" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13181,338 +13366,338 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="52">
         <v>3644062.52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="52">
         <v>315241.02</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="52">
         <v>244351.19999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="52">
         <v>24500.880000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="52">
         <v>953276.82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="52">
         <v>3141322.5199999996</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="52">
         <v>98455.61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="52">
         <v>1079405.54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="52">
         <v>653049.07000000007</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="52">
         <v>1185.5500000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="52">
         <v>1898139.64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="52">
         <v>461156.96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="52">
         <v>8487294.7300000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="52">
         <v>1166444.18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="52">
         <v>203440.58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="52">
         <v>144593.10999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="52">
         <v>589463.11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="52">
         <v>180000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="52">
         <v>-4565247.45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="52">
         <v>82108</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="52">
         <v>-82108</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="52">
         <v>-2187148.54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="52">
         <v>-7705040.7400000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="52">
         <v>-24056.94</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="52">
         <v>-3150616.27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="52">
         <v>-8022.83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="52">
         <v>-258758.64999999997</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="52">
         <v>-103187.23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="52">
         <v>-108079.47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="52">
         <v>-288596.53000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="52">
         <v>-53422.92</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="52">
         <v>-292510.12</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="52">
         <v>-353641.31</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="52">
         <v>-180000</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="52">
         <v>-28968921.409999996</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="52">
         <v>-2469175.91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="56">
+      <c r="B46" s="52">
         <v>-414441.42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B47" s="52">
         <v>-132189.04</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="B48" s="56">
+      <c r="B48" s="52">
         <v>-5213.12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="56">
+      <c r="B49" s="52">
         <v>-1608300</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="52">
         <v>-713799.1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="B51" s="56">
+      <c r="B51" s="52">
         <v>-6999.56</v>
       </c>
       <c r="C51" s="16"/>
@@ -13520,10 +13705,10 @@
       <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="B52" s="56">
+      <c r="B52" s="52">
         <v>-28.57</v>
       </c>
       <c r="C52" s="16"/>
@@ -13531,10 +13716,10 @@
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="52">
         <v>-18297.89</v>
       </c>
       <c r="C53" s="16"/>
@@ -13542,10 +13727,10 @@
       <c r="E53" s="16"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="56">
+      <c r="B54" s="52">
         <v>-1887348.92</v>
       </c>
       <c r="C54" s="16"/>
@@ -13553,10 +13738,10 @@
       <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="52">
         <v>-971338.87</v>
       </c>
       <c r="C55" s="16"/>
@@ -13564,10 +13749,10 @@
       <c r="E55" s="16"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="52">
         <v>-27785.96</v>
       </c>
       <c r="C56" s="16"/>
@@ -13575,10 +13760,10 @@
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="52">
         <v>-7022252.8600000003</v>
       </c>
       <c r="C57" s="16"/>
@@ -13586,285 +13771,285 @@
       <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="52">
         <v>940081.99</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="16"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="56">
+      <c r="B59" s="52">
         <v>516335.57</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="56"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="16"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="56">
+      <c r="B60" s="52">
         <v>150495.08000000002</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="56"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="16"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="B61" s="56">
+      <c r="B61" s="52">
         <v>73550.69</v>
       </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="56"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="16"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="52">
         <v>184364.52</v>
       </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="16"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="52">
         <v>100821.48</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="16"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="56">
+      <c r="B64" s="52">
         <v>15650</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="16"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="56">
+      <c r="B65" s="52">
         <v>1249294.8</v>
       </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="56"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="16"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="56">
+      <c r="B66" s="52">
         <v>41120.11</v>
       </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="16"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="52">
         <v>25144.9</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="56"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="16"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="52">
         <v>12530.35</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="16"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="52">
         <v>10251.650000000001</v>
       </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="56"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="16"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="52">
         <v>19391.329999999998</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="57"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="16"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="52">
         <v>535548.16000000003</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="56"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="16"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="52">
         <v>54815.53</v>
       </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="16"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="B73" s="60">
+      <c r="B73" s="56">
         <v>180038.83</v>
       </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="56"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="16"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B74" s="60">
+      <c r="B74" s="56">
         <v>10035.15</v>
       </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="16"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="60">
+      <c r="B75" s="56">
         <v>20759.71</v>
       </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="56"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="16"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="B76" s="60">
+      <c r="B76" s="56">
         <v>5941.7</v>
       </c>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="16"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="60">
+      <c r="B77" s="56">
         <v>18810.740000000002</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="56"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="16"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="B78" s="60">
+      <c r="B78" s="56">
         <v>187851.6</v>
       </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="57"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="53"/>
       <c r="E78" s="16"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="60">
+      <c r="B79" s="56">
         <v>1516776.25</v>
       </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="16"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="B80" s="60">
+      <c r="B80" s="56">
         <v>20171.650000000001</v>
       </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="56"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="16"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="B81" s="60">
+      <c r="B81" s="56">
         <v>187902.24</v>
       </c>
-      <c r="C81" s="55"/>
-      <c r="D81" s="56"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="16"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B82" s="60">
+      <c r="B82" s="56">
         <v>58139.899999999994</v>
       </c>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="16"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="60">
+      <c r="B83" s="56">
         <v>11200.08</v>
       </c>
       <c r="C83" s="16"/>
@@ -13872,10 +14057,10 @@
       <c r="E83" s="16"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B84" s="56">
+      <c r="B84" s="52">
         <v>41004.649999999994</v>
       </c>
       <c r="C84" s="16"/>
@@ -13883,10 +14068,10 @@
       <c r="E84" s="16"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="52">
         <v>4632.5200000000004</v>
       </c>
       <c r="C85" s="16"/>
@@ -13894,10 +14079,10 @@
       <c r="E85" s="16"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="56">
+      <c r="B86" s="52">
         <v>70928.960000000006</v>
       </c>
       <c r="C86" s="16"/>
@@ -13905,10 +14090,10 @@
       <c r="E86" s="16"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="B87" s="56">
+      <c r="B87" s="52">
         <v>450</v>
       </c>
       <c r="C87" s="16"/>
@@ -13916,10 +14101,10 @@
       <c r="E87" s="16"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="56">
+      <c r="B88" s="52">
         <v>37039.960000000006</v>
       </c>
       <c r="C88" s="16"/>
@@ -13927,10 +14112,10 @@
       <c r="E88" s="16"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="B89" s="56">
+      <c r="B89" s="52">
         <v>202727.56</v>
       </c>
       <c r="C89" s="16"/>
@@ -13938,10 +14123,10 @@
       <c r="E89" s="16"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B90" s="56">
+      <c r="B90" s="52">
         <v>303425.33999999997</v>
       </c>
       <c r="C90" s="16"/>
@@ -13949,10 +14134,10 @@
       <c r="E90" s="16"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="B91" s="56">
+      <c r="B91" s="52">
         <v>119804.60999999999</v>
       </c>
       <c r="C91" s="16"/>
@@ -13960,10 +14145,10 @@
       <c r="E91" s="16"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="55" t="s">
+      <c r="A92" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="B92" s="60">
+      <c r="B92" s="56">
         <v>50487.74</v>
       </c>
       <c r="C92" s="16"/>
@@ -13971,10 +14156,10 @@
       <c r="E92" s="16"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B93" s="60">
+      <c r="B93" s="56">
         <v>620433.25</v>
       </c>
       <c r="C93" s="16"/>
@@ -13982,136 +14167,316 @@
       <c r="E93" s="16"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B94" s="60">
-        <v>530032.15</v>
+      <c r="A94" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="62">
+        <v>7234.26</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B95" s="60">
-        <v>12481.78</v>
+      <c r="A95" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="62">
+        <v>86936.39</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="B96" s="60">
-        <v>2032.49</v>
+      <c r="A96" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="38">
+        <v>3121</v>
       </c>
       <c r="C96" s="45"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="B97" s="60">
-        <v>33587.019999999997</v>
+      <c r="A97" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="B97" s="38">
+        <v>550</v>
       </c>
       <c r="C97" s="45"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
-        <v>372</v>
-      </c>
-      <c r="B98" s="56">
-        <v>20674.96</v>
+      <c r="A98" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="38">
+        <v>342.94</v>
       </c>
       <c r="C98" s="45"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="B99" s="56">
-        <v>-15000</v>
+      <c r="A99" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="62">
+        <v>3650</v>
       </c>
       <c r="C99" s="45"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="37" t="s">
-        <v>355</v>
+      <c r="A100" s="61" t="s">
+        <v>196</v>
       </c>
       <c r="B100" s="38">
-        <v>-22650643.94000002</v>
-      </c>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+        <v>480.87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" s="38">
+        <v>89588.1</v>
+      </c>
+      <c r="D101">
+        <f>+GETPIVOTDATA("Saldo",$A$4,"Casillero -Descripcion ","7247-OTROS GASTOS","Nombre de la Cuenta","Agasajo al Personal Planta                                            ")+GETPIVOTDATA("Saldo",$A$4,"Casillero -Descripcion ","7247-OTROS GASTOS","Nombre de la Cuenta","Alimentación Planta                                                   ")+GETPIVOTDATA("Saldo",$A$4,"Casillero -Descripcion ","7247-OTROS GASTOS","Nombre de la Cuenta","Capacitación y Seminarios Planta                                      ")+GETPIVOTDATA("Saldo",$A$4,"Casillero -Descripcion ","7247-OTROS GASTOS","Nombre de la Cuenta","Gastos Médicos Planta                                                 ")+GETPIVOTDATA("Saldo",$A$4,"Casillero -Descripcion ","7247-OTROS GASTOS","Nombre de la Cuenta","Uniformes personal planta                                             ")+GETPIVOTDATA("Saldo",$A$4,"Casillero -Descripcion ","7247-OTROS GASTOS","Nombre de la Cuenta","Utiles de limpieza, cafeteria y varios planta                         ")</f>
+        <v>107730.09</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" s="38">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="38">
+        <v>7845.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="62">
+        <v>2536.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="38">
+        <v>5998.02</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="B106" s="38">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" s="38">
+        <v>28471.74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="38">
+        <v>572.32000000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="38">
+        <v>4920.2299999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="38">
+        <v>362149.94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="38">
+        <v>2002.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" s="38">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" s="62">
+        <v>3865.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="62">
+        <v>3507.52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B117" s="56">
+        <v>530032.15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" s="56">
+        <v>12481.78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" s="56">
+        <v>2032.49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" s="56">
+        <v>33587.019999999997</v>
+      </c>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="B121" s="52">
+        <v>20674.96</v>
+      </c>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="B122" s="52">
+        <v>-15000</v>
+      </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B123" s="38">
+        <v>-22650643.940000016</v>
+      </c>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
